--- a/data/input/employee_absence_data_5.xlsx
+++ b/data/input/employee_absence_data_5.xlsx
@@ -464,161 +464,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42516</v>
+        <v>17607</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Guilherme Oliveira</t>
+          <t>Sara Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>7015.97</v>
+        <v>3878.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96901</v>
+        <v>31270</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Breno Ramos</t>
+          <t>João Vitor Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>8520.83</v>
+        <v>3855.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86667</v>
+        <v>94321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melissa Albuquerque</t>
+          <t>Ana Carolina Araújo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.83</v>
+        <v>6856.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17836</v>
+        <v>2144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luana Cavalcante</t>
+          <t>Alexia Macedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>11808.88</v>
+        <v>7253.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66247</v>
+        <v>18213</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Léo da Mota</t>
+          <t>Maria Fernanda Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>11191.09</v>
+        <v>5044.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1191</v>
+        <v>44621</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joaquim Porto</t>
+          <t>Maria Cecília Sampaio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>10979.34</v>
+        <v>9759.309999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92340</v>
+        <v>33976</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Ana Liz Ramos</t>
+          <t>Sra. Isabella Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>3877.41</v>
+        <v>3435.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23750</v>
+        <v>10153</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fernando Cassiano</t>
+          <t>Mirella Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45106</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>10292.57</v>
+        <v>5078.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4056</v>
+        <v>69028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Catarina Albuquerque</t>
+          <t>João Vitor da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>11105.14</v>
+        <v>8366.969999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89013</v>
+        <v>68374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Catarina da Cunha</t>
+          <t>Murilo Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>3343.16</v>
+        <v>5688.63</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_5.xlsx
+++ b/data/input/employee_absence_data_5.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17607</v>
+        <v>27064</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sara Carvalho</t>
+          <t>Luana Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>3878.63</v>
+        <v>8368.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31270</v>
+        <v>2754</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Vitor Gomes</t>
+          <t>Srta. Ana Cecília Marques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,27 +511,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>3855.63</v>
+        <v>4309.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94321</v>
+        <v>41226</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina Araújo</t>
+          <t>Luan Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,109 +540,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>6856.7</v>
+        <v>4319.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2144</v>
+        <v>28251</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Macedo</t>
+          <t>Juliana Marques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45083</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>7253.71</v>
+        <v>6473.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18213</v>
+        <v>41390</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Fernanda Carvalho</t>
+          <t>Enzo Gabriel Garcia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>5044.03</v>
+        <v>7022.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44621</v>
+        <v>57562</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Cecília Sampaio</t>
+          <t>Dra. Julia Rezende</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>9759.309999999999</v>
+        <v>8096.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33976</v>
+        <v>80684</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Isabella Ferreira</t>
+          <t>Srta. Stephany Araújo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>3435.06</v>
+        <v>8010.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10153</v>
+        <v>15129</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mirella Ferreira</t>
+          <t>Bella Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>5078.07</v>
+        <v>2685.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69028</v>
+        <v>5861</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Vitor da Rosa</t>
+          <t>Gabriel Leão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>8366.969999999999</v>
+        <v>6576.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68374</v>
+        <v>82266</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Murilo Moreira</t>
+          <t>Ana Luiza da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45090</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>5688.63</v>
+        <v>6344.75</v>
       </c>
     </row>
   </sheetData>
